--- a/ergebnisse/phase_1/Meilensteinplan.xlsx
+++ b/ergebnisse/phase_1/Meilensteinplan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leond\Dropbox\HSW\Kurse\4. Semester\IT-Projektmanagement\Fallstudie\itpm_fallstudie\ergebnisse\phase_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF1772A7-3D93-45B7-AB9E-E0433CED321F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0F3D97E-8CD2-4944-BCE4-F59942E07F94}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -98,7 +98,6 @@
     <font>
       <b/>
       <sz val="16"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -118,7 +117,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -154,39 +153,19 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -194,7 +173,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="7" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -209,38 +188,182 @@
     <xf numFmtId="7" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="7">
+    <dxf>
+      <numFmt numFmtId="165" formatCode="#,##0.00\ _€;\-#,##0.00\ _€"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-407]d/\ mmmm\ yyyy;@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -251,6 +374,19 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{39357CE9-6887-48F5-A37A-4EBAD94B8429}" name="Tabelle2" displayName="Tabelle2" ref="A1:D7" totalsRowShown="0" headerRowDxfId="4" headerRowBorderDxfId="5" tableBorderDxfId="6">
+  <autoFilter ref="A1:D7" xr:uid="{B1E9CD2F-E377-4165-A1DE-22F67D2A23B5}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{7CD15217-626C-4CE3-A14A-408C9F671A57}" name="Termin" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{205C7055-473A-4296-990A-CDB56E5428F4}" name="Bezeichung" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{DDB14E8F-2C14-4F80-B314-FCEE42C3589B}" name="Ergebnisse" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{E25CFA1D-A344-436A-93A2-63D87AEE9867}" name="Kosten (€)" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -550,130 +686,133 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:E14"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.42578125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="36.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="45.42578125" customWidth="1"/>
-    <col min="5" max="5" width="17" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.85546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.42578125" customWidth="1"/>
+    <col min="4" max="4" width="17" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="9"/>
       <c r="B2" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B3" s="12"/>
+        <v>3</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="11"/>
+    </row>
+    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="12"/>
+      <c r="B3" s="9" t="s">
+        <v>5</v>
+      </c>
       <c r="C3" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="13"/>
-    </row>
-    <row r="4" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B4" s="6"/>
-      <c r="C4" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="14"/>
-    </row>
-    <row r="5" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B5" s="6"/>
-      <c r="C5" s="7" t="s">
+      <c r="D3" s="11"/>
+    </row>
+    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="12"/>
+      <c r="B4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="C4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="14"/>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="6"/>
-      <c r="C6" s="7" t="s">
+      <c r="D4" s="11"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="12"/>
+      <c r="B5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="14"/>
-    </row>
-    <row r="7" spans="2:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B7" s="6"/>
-      <c r="C7" s="7" t="s">
+      <c r="C5" s="9"/>
+      <c r="D5" s="11"/>
+    </row>
+    <row r="6" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="12"/>
+      <c r="B6" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="C6" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="14"/>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="6"/>
-      <c r="C8" s="7" t="s">
+      <c r="D6" s="11"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="12"/>
+      <c r="B7" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="C7" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="14"/>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="3"/>
+      <c r="D7" s="11"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="4"/>
       <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="5"/>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="3"/>
+      <c r="D9" s="5"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="4"/>
       <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="5"/>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="3"/>
+      <c r="D10" s="5"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="4"/>
       <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="5"/>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="3"/>
+      <c r="D11" s="5"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="4"/>
       <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="5"/>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="3"/>
+      <c r="D12" s="5"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="4"/>
       <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="5"/>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="3"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="5"/>
+      <c r="D13" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>